--- a/public/tmp/monthreport.xlsx
+++ b/public/tmp/monthreport.xlsx
@@ -424,74 +424,56 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2:Q8"/>
+      <selection activeCell="C2" sqref="C2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:4">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <f>SUM(D4:P4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D4:C4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="Q5">
-        <f>SUM(D5:P5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17"/>
-    <row r="7" spans="1:17"/>
-    <row r="8" spans="1:17"/>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D5:C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4"/>
+    <row r="7" spans="1:4"/>
+    <row r="8" spans="1:4"/>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,9 +545,15 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -580,16 +568,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>106906.5</v>
+        <v>52575.0</v>
       </c>
       <c r="D5" s="1">
-        <v>116632.5</v>
+        <v>46880.61</v>
       </c>
       <c r="E5" s="1">
-        <v>223539.0</v>
+        <v>99455.61</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -605,11 +593,17 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21745.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21745.0</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -626,9 +620,15 @@
       <c r="B7" s="1">
         <v>24</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="1">
+        <v>224545.58</v>
+      </c>
+      <c r="D7" s="1">
+        <v>158482.72</v>
+      </c>
+      <c r="E7" s="1">
+        <v>383028.3</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -643,11 +643,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>158435.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>164027.64</v>
+      </c>
+      <c r="E8" s="1">
+        <v>322462.64</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -662,11 +668,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>269654.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>426300.61</v>
+      </c>
+      <c r="E9" s="1">
+        <v>695954.61</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -681,11 +693,17 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7650.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>701.76</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8351.76</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -702,9 +720,15 @@
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="C11" s="1">
+        <v>12380.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>61193.97</v>
+      </c>
+      <c r="E11" s="1">
+        <v>73573.97</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -719,16 +743,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>35105.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>21151.49</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>56256.49</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -746,9 +770,15 @@
       <c r="B13" s="1">
         <v>0</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -765,9 +795,15 @@
       <c r="B14" s="1">
         <v>0</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -781,10 +817,18 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/public/tmp/monthreport.xlsx
+++ b/public/tmp/monthreport.xlsx
@@ -424,30 +424,150 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2:D8"/>
+      <selection activeCell="C2" sqref="C2:AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:34">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2">
+        <v>20</v>
+      </c>
+      <c r="W3" s="2">
+        <v>21</v>
+      </c>
+      <c r="X3" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -455,11 +575,101 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUM(D4:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2020.0</v>
+      </c>
+      <c r="E4">
+        <v>7260.0</v>
+      </c>
+      <c r="F4">
+        <v>510.0</v>
+      </c>
+      <c r="G4">
+        <v>4760.0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f>SUM(D4:AG4)</f>
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -467,13 +677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUM(D5:C5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
+        <v>2020.0</v>
+      </c>
+      <c r="E5">
+        <v>7260.0</v>
+      </c>
+      <c r="F5">
+        <v>510.0</v>
+      </c>
+      <c r="G5">
+        <v>4760.0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>SUM(D5:AG5)</f>
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34"/>
+    <row r="7" spans="1:34"/>
+    <row r="8" spans="1:34"/>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,16 +868,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>52575.0</v>
+        <v>137932.0</v>
       </c>
       <c r="D5" s="1">
-        <v>46880.61</v>
+        <v>110343.85</v>
       </c>
       <c r="E5" s="1">
-        <v>99455.61</v>
+        <v>248275.85</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -618,16 +918,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>224545.58</v>
+        <v>128702.18</v>
       </c>
       <c r="D7" s="1">
-        <v>158482.72</v>
+        <v>81545.86</v>
       </c>
       <c r="E7" s="1">
-        <v>383028.3</v>
+        <v>210248.04</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -643,16 +943,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>158435.0</v>
+        <v>139496.4</v>
       </c>
       <c r="D8" s="1">
-        <v>164027.64</v>
+        <v>174378.98</v>
       </c>
       <c r="E8" s="1">
-        <v>322462.64</v>
+        <v>313875.38</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -668,16 +968,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>269654.0</v>
+        <v>424641.5</v>
       </c>
       <c r="D9" s="1">
-        <v>426300.61</v>
+        <v>527488.7</v>
       </c>
       <c r="E9" s="1">
-        <v>695954.61</v>
+        <v>952130.2</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -693,16 +993,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>7650.0</v>
+        <v>3825.0</v>
       </c>
       <c r="D10" s="1">
         <v>701.76</v>
       </c>
       <c r="E10" s="1">
-        <v>8351.76</v>
+        <v>4526.76</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -721,13 +1021,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>12380.0</v>
+        <v>18500.0</v>
       </c>
       <c r="D11" s="1">
-        <v>61193.97</v>
+        <v>57487.29</v>
       </c>
       <c r="E11" s="1">
-        <v>73573.97</v>
+        <v>75987.29</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -793,16 +1093,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>15705.0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>11560.85</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>27265.85</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/public/tmp/monthreport.xlsx
+++ b/public/tmp/monthreport.xlsx
@@ -424,30 +424,58 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2:D8"/>
+      <selection activeCell="C2" sqref="C2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -455,11 +483,32 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUM(D4:C4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2020.0</v>
+      </c>
+      <c r="E4">
+        <v>7260.0</v>
+      </c>
+      <c r="F4">
+        <v>510.0</v>
+      </c>
+      <c r="G4">
+        <v>4760.0</v>
+      </c>
+      <c r="H4">
+        <v>6630.0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>81817.5</v>
+      </c>
+      <c r="K4">
+        <f>SUM(D4:J4)</f>
+        <v>102997.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -467,13 +516,34 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>SUM(D5:C5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
+        <v>2020.0</v>
+      </c>
+      <c r="E5">
+        <v>7260.0</v>
+      </c>
+      <c r="F5">
+        <v>510.0</v>
+      </c>
+      <c r="G5">
+        <v>4760.0</v>
+      </c>
+      <c r="H5">
+        <v>6630.0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>81817.5</v>
+      </c>
+      <c r="K5">
+        <f>SUM(D5:J5)</f>
+        <v>102997.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11"/>
+    <row r="7" spans="1:11"/>
+    <row r="8" spans="1:11"/>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -568,16 +638,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>52575.0</v>
+        <v>66543.5</v>
       </c>
       <c r="D5" s="1">
-        <v>46880.61</v>
+        <v>70108.0</v>
       </c>
       <c r="E5" s="1">
-        <v>99455.61</v>
+        <v>136651.5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -618,16 +688,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>224545.58</v>
+        <v>109124.91</v>
       </c>
       <c r="D7" s="1">
-        <v>158482.72</v>
+        <v>19841.62</v>
       </c>
       <c r="E7" s="1">
-        <v>383028.3</v>
+        <v>128966.53</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -643,16 +713,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>158435.0</v>
+        <v>205651.9</v>
       </c>
       <c r="D8" s="1">
-        <v>164027.64</v>
+        <v>234317.83</v>
       </c>
       <c r="E8" s="1">
-        <v>322462.64</v>
+        <v>439969.73</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -668,16 +738,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>269654.0</v>
+        <v>412241.5</v>
       </c>
       <c r="D9" s="1">
-        <v>426300.61</v>
+        <v>523706.85</v>
       </c>
       <c r="E9" s="1">
-        <v>695954.61</v>
+        <v>935948.35</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -693,16 +763,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>7650.0</v>
+        <v>3825.0</v>
       </c>
       <c r="D10" s="1">
         <v>701.76</v>
       </c>
       <c r="E10" s="1">
-        <v>8351.76</v>
+        <v>4526.76</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -718,16 +788,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>12380.0</v>
+        <v>11870.0</v>
       </c>
       <c r="D11" s="1">
-        <v>61193.97</v>
+        <v>57487.29</v>
       </c>
       <c r="E11" s="1">
-        <v>73573.97</v>
+        <v>69357.29</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -768,16 +838,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>102997.5</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>114538.79</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>217536.29</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -793,16 +863,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>36395.0</v>
       </c>
       <c r="D14" s="1">
-        <v>0</v>
+        <v>34222.35</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>70617.35</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/public/tmp/monthreport.xlsx
+++ b/public/tmp/monthreport.xlsx
@@ -424,15 +424,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2:K8"/>
+      <selection activeCell="C2" sqref="C2:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -442,8 +442,11 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -471,11 +474,20 @@
       <c r="J3" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -504,11 +516,20 @@
         <v>81817.5</v>
       </c>
       <c r="K4">
-        <f>SUM(D4:J4)</f>
-        <v>102997.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>4140.0</v>
+      </c>
+      <c r="L4">
+        <v>18260.0</v>
+      </c>
+      <c r="M4">
+        <v>59392.0</v>
+      </c>
+      <c r="N4">
+        <f>SUM(D4:M4)</f>
+        <v>184789.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -537,13 +558,22 @@
         <v>81817.5</v>
       </c>
       <c r="K5">
-        <f>SUM(D5:J5)</f>
-        <v>102997.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11"/>
-    <row r="7" spans="1:11"/>
-    <row r="8" spans="1:11"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10330.0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUM(D5:M5)</f>
+        <v>113327.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14"/>
+    <row r="7" spans="1:14"/>
+    <row r="8" spans="1:14"/>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -638,16 +668,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>66543.5</v>
+        <v>117750.0</v>
       </c>
       <c r="D5" s="1">
-        <v>70108.0</v>
+        <v>176563.89</v>
       </c>
       <c r="E5" s="1">
-        <v>136651.5</v>
+        <v>294313.89</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -663,16 +693,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>21745.0</v>
+        <v>12735.0</v>
       </c>
       <c r="D6" s="1">
         <v>0.0</v>
       </c>
       <c r="E6" s="1">
-        <v>21745.0</v>
+        <v>12735.0</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -688,16 +718,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>109124.91</v>
+        <v>152124.41</v>
       </c>
       <c r="D7" s="1">
-        <v>19841.62</v>
+        <v>90282.97</v>
       </c>
       <c r="E7" s="1">
-        <v>128966.53</v>
+        <v>242407.38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -713,16 +743,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>205651.9</v>
+        <v>159105.5</v>
       </c>
       <c r="D8" s="1">
-        <v>234317.83</v>
+        <v>210150.54</v>
       </c>
       <c r="E8" s="1">
-        <v>439969.73</v>
+        <v>369256.04</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -738,16 +768,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
-        <v>412241.5</v>
+        <v>404207.77</v>
       </c>
       <c r="D9" s="1">
-        <v>523706.85</v>
+        <v>437065.2</v>
       </c>
       <c r="E9" s="1">
-        <v>935948.35</v>
+        <v>841272.97</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -763,16 +793,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>3825.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>701.76</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>4526.76</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -813,16 +843,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>71462.0</v>
       </c>
       <c r="D12" s="1">
-        <v>0</v>
+        <v>110460.65</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>181922.65</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -838,16 +868,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>102997.5</v>
+        <v>113327.5</v>
       </c>
       <c r="D13" s="1">
-        <v>114538.79</v>
+        <v>117386.29</v>
       </c>
       <c r="E13" s="1">
-        <v>217536.29</v>
+        <v>230713.79</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -863,16 +893,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>36395.0</v>
+        <v>61685.0</v>
       </c>
       <c r="D14" s="1">
-        <v>34222.35</v>
+        <v>41634.35</v>
       </c>
       <c r="E14" s="1">
-        <v>70617.35</v>
+        <v>103319.35</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/public/tmp/monthreport.xlsx
+++ b/public/tmp/monthreport.xlsx
@@ -424,15 +424,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C2" sqref="C2:N8"/>
+      <selection activeCell="C2" sqref="C2:AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:33">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -445,8 +445,27 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -483,11 +502,68 @@
       <c r="M3" s="2">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2">
+        <v>20</v>
+      </c>
+      <c r="W3" s="2">
+        <v>21</v>
+      </c>
+      <c r="X3" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:33">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -495,41 +571,98 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2020.0</v>
+        <v>19720.0</v>
       </c>
       <c r="E4">
-        <v>7260.0</v>
+        <v>3910.0</v>
       </c>
       <c r="F4">
-        <v>510.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4760.0</v>
+        <v>17900.0</v>
       </c>
       <c r="H4">
-        <v>6630.0</v>
+        <v>22433.2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>41004.0</v>
       </c>
       <c r="J4">
-        <v>81817.5</v>
+        <v>6273.0</v>
       </c>
       <c r="K4">
-        <v>4140.0</v>
+        <v>16492.5</v>
       </c>
       <c r="L4">
-        <v>18260.0</v>
+        <v>3995.0</v>
       </c>
       <c r="M4">
-        <v>59392.0</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <f>SUM(D4:M4)</f>
-        <v>184789.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24055.0</v>
+      </c>
+      <c r="P4">
+        <v>29860.0</v>
+      </c>
+      <c r="Q4">
+        <v>38999.0</v>
+      </c>
+      <c r="R4">
+        <v>40417.5</v>
+      </c>
+      <c r="S4">
+        <v>24965.0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>47506.5</v>
+      </c>
+      <c r="V4">
+        <v>19874.58</v>
+      </c>
+      <c r="W4">
+        <v>37965.89</v>
+      </c>
+      <c r="X4">
+        <v>3830.28</v>
+      </c>
+      <c r="Y4">
+        <v>102522.44</v>
+      </c>
+      <c r="Z4">
+        <v>27717.5</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>23990.4</v>
+      </c>
+      <c r="AC4">
+        <v>30894.16</v>
+      </c>
+      <c r="AD4">
+        <v>42277.48</v>
+      </c>
+      <c r="AE4">
+        <v>165887.5</v>
+      </c>
+      <c r="AF4">
+        <v>66745.52</v>
+      </c>
+      <c r="AG4">
+        <f>SUM(D4:AF4)</f>
+        <v>859236.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -537,43 +670,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2020.0</v>
+        <v>19720.0</v>
       </c>
       <c r="E5">
-        <v>7260.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>510.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4760.0</v>
+        <v>21810.0</v>
       </c>
       <c r="H5">
-        <v>6630.0</v>
+        <v>22433.2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>41004.0</v>
       </c>
       <c r="J5">
-        <v>81817.5</v>
+        <v>6273.0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10032.5</v>
       </c>
       <c r="L5">
-        <v>10330.0</v>
+        <v>3995.0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <f>SUM(D5:M5)</f>
-        <v>113327.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14"/>
-    <row r="7" spans="1:14"/>
-    <row r="8" spans="1:14"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>20655.0</v>
+      </c>
+      <c r="P5">
+        <v>11430.0</v>
+      </c>
+      <c r="Q5">
+        <v>55049.0</v>
+      </c>
+      <c r="R5">
+        <v>27370.0</v>
+      </c>
+      <c r="S5">
+        <v>33125.0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>80428.58</v>
+      </c>
+      <c r="W5">
+        <v>37965.89</v>
+      </c>
+      <c r="X5">
+        <v>3830.28</v>
+      </c>
+      <c r="Y5">
+        <v>102522.44</v>
+      </c>
+      <c r="Z5">
+        <v>27717.5</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>23990.4</v>
+      </c>
+      <c r="AC5">
+        <v>16444.16</v>
+      </c>
+      <c r="AD5">
+        <v>56727.48</v>
+      </c>
+      <c r="AE5">
+        <v>165887.5</v>
+      </c>
+      <c r="AF5">
+        <v>57674.02</v>
+      </c>
+      <c r="AG5">
+        <f>SUM(D5:AF5)</f>
+        <v>846084.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33"/>
+    <row r="7" spans="1:33"/>
+    <row r="8" spans="1:33"/>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -667,18 +857,10 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>117750.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>176563.89</v>
-      </c>
-      <c r="E5" s="1">
-        <v>294313.89</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -693,16 +875,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>12735.0</v>
+        <v>45622.9</v>
       </c>
       <c r="D6" s="1">
         <v>0.0</v>
       </c>
       <c r="E6" s="1">
-        <v>12735.0</v>
+        <v>39577.9</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -718,16 +900,16 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>152124.41</v>
+        <v>142585.91</v>
       </c>
       <c r="D7" s="1">
-        <v>90282.97</v>
+        <v>185727.18</v>
       </c>
       <c r="E7" s="1">
-        <v>242407.38</v>
+        <v>328313.09</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -743,16 +925,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
-        <v>159105.5</v>
+        <v>200479.88</v>
       </c>
       <c r="D8" s="1">
-        <v>210150.54</v>
+        <v>153418.3</v>
       </c>
       <c r="E8" s="1">
-        <v>369256.04</v>
+        <v>353898.18</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -768,16 +950,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>404207.77</v>
+        <v>316679.5</v>
       </c>
       <c r="D9" s="1">
-        <v>437065.2</v>
+        <v>332980.35</v>
       </c>
       <c r="E9" s="1">
-        <v>841272.97</v>
+        <v>649659.85</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -793,16 +975,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>20296.5</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>55383.64</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>75680.14</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -818,16 +1000,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>11870.0</v>
+        <v>340.0</v>
       </c>
       <c r="D11" s="1">
-        <v>57487.29</v>
+        <v>7306.0</v>
       </c>
       <c r="E11" s="1">
-        <v>69357.29</v>
+        <v>7646.0</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -843,16 +1025,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>71462.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>110460.65</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>181922.65</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -868,16 +1050,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1">
-        <v>113327.5</v>
+        <v>846084.95</v>
       </c>
       <c r="D13" s="1">
-        <v>117386.29</v>
+        <v>1007350.24</v>
       </c>
       <c r="E13" s="1">
-        <v>230713.79</v>
+        <v>1853435.19</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -893,16 +1075,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1">
-        <v>61685.0</v>
+        <v>890767.91</v>
       </c>
       <c r="D14" s="1">
-        <v>41634.35</v>
+        <v>1201320.22</v>
       </c>
       <c r="E14" s="1">
-        <v>103319.35</v>
+        <v>2092088.13</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
